--- a/video_details.xlsx
+++ b/video_details.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,25 +460,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Views</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Likes</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CommentCount</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -507,21 +517,23 @@
           <t>en-US</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>696980</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>33471</v>
+        <v>803357</v>
       </c>
       <c r="H2" t="n">
-        <v>476</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>35826</v>
+      </c>
+      <c r="I2" t="n">
+        <v>596</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/oL6ooQb-ZRQ/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -569,6 +581,8 @@
 Mixed at LAB recorders, SIGN SOUND
 Director/Illustrator：WOOMA
 https://twitter.com/tomapocpo
+▼inst音源
+https://piapro.jp/t/hhhR
 #Ado #ウタ #TotMusica #UTA #ウタ_TotMusica #澤野弘之 #WOOMA</t>
         </is>
       </c>
@@ -580,21 +594,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>6908302</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>362332</v>
+        <v>8243366</v>
       </c>
       <c r="H3" t="n">
-        <v>11343</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>401459</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12044</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/V9_ZpqfqHFI/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -686,21 +706,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1446351</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>45970</v>
+        <v>1478974</v>
       </c>
       <c r="H4" t="n">
-        <v>2232</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>46719</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2240</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/d7DTFuMnoxg/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Entertainment', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -747,6 +773,8 @@
 Director/Illustrator/Animation：sto1e
 https://twitter.com/sto1e
 Animation Director/Composite：HIDEKI INABA
+▼inst音源
+https://piapro.jp/t/HEHY
 #Ado #ウタ #TheWorldsContinuation #UTA #ウタ_世界のつづき #折坂悠太 #すとレ</t>
         </is>
       </c>
@@ -758,21 +786,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>3628663</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>136588</v>
+        <v>3879785</v>
       </c>
       <c r="H5" t="n">
-        <v>3880</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>141713</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4026</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/b3GCfyNKeLs/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -812,6 +846,8 @@
 Guitar : Johngarabushi
 Vocal Edit &amp; Mix : Shunsuke Shibusawa
 Movie Director : Wotakichi(NIN)
+▼inst音源
+https://piapro.jp/t/444u
 #Ado #ウタ #FleetingLullaby #UTA #ウタ_ウタカタララバイ #FAKETYPE #ヲタきち</t>
         </is>
       </c>
@@ -823,21 +859,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>10318747</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>252443</v>
+        <v>10975569</v>
       </c>
       <c r="H6" t="n">
-        <v>7081</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>262854</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7226</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/hyV1AJiFNyo/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -926,21 +968,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>2463157</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>72870</v>
+        <v>2504619</v>
       </c>
       <c r="H7" t="n">
-        <v>3337</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>73716</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3354</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/0iYLJLXX-Sw/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -993,21 +1041,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>3099702</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>145149</v>
+        <v>3154470</v>
       </c>
       <c r="H8" t="n">
-        <v>4991</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>146355</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/x1UsJ2Znjk0/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
@@ -1053,21 +1107,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>8238928</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>300435</v>
+        <v>8405838</v>
       </c>
       <c r="H9" t="n">
-        <v>11633</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>302809</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11679</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/7i_nc5GGIsI/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
@@ -1111,6 +1171,8 @@
 Director : Hironobu Nagasawa
 Art Direction / Design：.MP
 https://sohin.fanbox.cc/
+▼inst音源
+https://piapro.jp/t/nMFb
 #Ado #ウタ #Backlight #UTA #ウタ_逆光 #Vaundy #so品</t>
         </is>
       </c>
@@ -1122,21 +1184,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>19226273</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>405403</v>
+        <v>20041226</v>
       </c>
       <c r="H10" t="n">
-        <v>11327</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>417807</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11517</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/gt-v_YCkaMY/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
@@ -1190,6 +1258,8 @@
 Mixed by Yoshinori Adachi at LAB recorders
 アニメーション作家：藍にいな
 https://ainina.net/
+▼inst音源
+https://piapro.jp/t/YzG-
 #Ado #私は最強 #ウタ#Iminvincible #UTA #ウタ_私は最強 #MrsGREENAPPLE #藍にいな</t>
         </is>
       </c>
@@ -1201,21 +1271,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>13603526</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>274256</v>
+        <v>14125541</v>
       </c>
       <c r="H11" t="n">
-        <v>7418</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>280992</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7547</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/sk1Z-Hqwwog/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -1258,6 +1334,8 @@
 動画編集 : SHIG
 アシスタント : 涼白はく、保村成
 https://hmng.works/
+▼inst音源
+https://piapro.jp/t/2iKV
 #Ado #新時代 #ウタ #NEWGENESIS #UTA #ウタ_新時代 #中田ヤスタカ #hmng</t>
         </is>
       </c>
@@ -1269,21 +1347,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>35537946</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>660024</v>
+        <v>36874933</v>
       </c>
       <c r="H12" t="n">
-        <v>18286</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>677984</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18713</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/1FliVTcX8bQ/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -1319,21 +1403,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>517759</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>6912</v>
+        <v>530927</v>
       </c>
       <c r="H13" t="n">
-        <v>161</v>
-      </c>
-      <c r="I13" t="inlineStr">
+        <v>7015</v>
+      </c>
+      <c r="I13" t="n">
+        <v>164</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/TRk9_QLZYvI/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -1390,21 +1480,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1763917</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>61844</v>
+        <v>1773234</v>
       </c>
       <c r="H14" t="n">
-        <v>1163</v>
-      </c>
-      <c r="I14" t="inlineStr">
+        <v>62017</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1165</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/u-G_zzhLSy8/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>May</t>
         </is>
@@ -1460,21 +1556,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>5052983</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>117801</v>
+        <v>5085615</v>
       </c>
       <c r="H15" t="n">
-        <v>2118</v>
-      </c>
-      <c r="I15" t="inlineStr">
+        <v>118233</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2124</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/_wZfYtYwxro/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>May</t>
         </is>
@@ -1533,21 +1635,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>3054191</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>93124</v>
+        <v>3067267</v>
       </c>
       <c r="H16" t="n">
-        <v>1595</v>
-      </c>
-      <c r="I16" t="inlineStr">
+        <v>93327</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1596</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/iRMYLKIWyUk/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
@@ -1608,21 +1716,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>6684957</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>151697</v>
+        <v>6710165</v>
       </c>
       <c r="H17" t="n">
-        <v>3920</v>
-      </c>
-      <c r="I17" t="inlineStr">
+        <v>152080</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3926</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/ZHAnZTVF_10/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
@@ -1680,21 +1794,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>2742764</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>70776</v>
+        <v>2749260</v>
       </c>
       <c r="H18" t="n">
-        <v>1554</v>
-      </c>
-      <c r="I18" t="inlineStr">
+        <v>70872</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1555</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/55W2LxbQoHc/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
@@ -1751,21 +1871,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>3099204</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>82137</v>
+        <v>3107531</v>
       </c>
       <c r="H19" t="n">
-        <v>1833</v>
-      </c>
-      <c r="I19" t="inlineStr">
+        <v>82271</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1834</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/5_-TcIOxm60/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
@@ -1889,21 +2015,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>697715</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>25940</v>
+        <v>700259</v>
       </c>
       <c r="H20" t="n">
+        <v>26001</v>
+      </c>
+      <c r="I20" t="n">
         <v>1049</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/kOW0rt4fpHg/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
@@ -2037,21 +2169,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>1102717</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>41623</v>
+        <v>1104160</v>
       </c>
       <c r="H21" t="n">
+        <v>41651</v>
+      </c>
+      <c r="I21" t="n">
         <v>1205</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/DTxrPgpW9Tc/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
@@ -2113,21 +2251,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>19710292</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>258083</v>
+        <v>19750276</v>
       </c>
       <c r="H22" t="n">
-        <v>4826</v>
-      </c>
-      <c r="I22" t="inlineStr">
+        <v>258455</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4828</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/BMb5IetESGE/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
@@ -2170,21 +2314,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1284617</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', 'Ado 歌ってみた', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手']</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>40170</v>
+        <v>1288843</v>
       </c>
       <c r="H23" t="n">
-        <v>1149</v>
-      </c>
-      <c r="I23" t="inlineStr">
+        <v>40221</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1150</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/wuYIVacOTF8/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
@@ -2227,21 +2381,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>1952907</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', 'Ado 歌ってみた', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手']</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>71154</v>
+        <v>1958063</v>
       </c>
       <c r="H24" t="n">
-        <v>2590</v>
-      </c>
-      <c r="I24" t="inlineStr">
+        <v>71231</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2592</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/Uuqp7WH4-Wo/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
@@ -2389,21 +2553,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>6711786</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>148707</v>
+        <v>6722959</v>
       </c>
       <c r="H25" t="n">
-        <v>2941</v>
-      </c>
-      <c r="I25" t="inlineStr">
+        <v>148871</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2943</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/zcgoi61B5D8/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -2456,21 +2626,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>10126717</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>179374</v>
+        <v>10152535</v>
       </c>
       <c r="H26" t="n">
+        <v>179636</v>
+      </c>
+      <c r="I26" t="n">
         <v>3967</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/3tPBEjxqEc4/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -2515,21 +2691,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>1232020</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', 'Ado 歌ってみた', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手']</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>49525</v>
+        <v>1238958</v>
       </c>
       <c r="H27" t="n">
+        <v>49693</v>
+      </c>
+      <c r="I27" t="n">
         <v>1322</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/nuvNgt60km4/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -2571,21 +2757,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>578085</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>46002</v>
+        <v>579015</v>
       </c>
       <c r="H28" t="n">
-        <v>1622</v>
-      </c>
-      <c r="I28" t="inlineStr">
+        <v>46058</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1623</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/ECp9I1CPkJQ/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music']</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -2628,21 +2820,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>298357</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>14927</v>
+        <v>298601</v>
       </c>
       <c r="H29" t="n">
+        <v>14931</v>
+      </c>
+      <c r="I29" t="n">
         <v>399</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/TTxzYrbDLwA/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music']</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -2684,21 +2882,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>1030132</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>47364</v>
+        <v>1030561</v>
       </c>
       <c r="H30" t="n">
+        <v>47373</v>
+      </c>
+      <c r="I30" t="n">
         <v>1511</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/fBnAP_FOy5U/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
@@ -2770,21 +2974,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>57024311</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>611254</v>
+        <v>57117638</v>
       </c>
       <c r="H31" t="n">
-        <v>14266</v>
-      </c>
-      <c r="I31" t="inlineStr">
+        <v>611989</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14277</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/cyq5-StPISU/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
@@ -2897,21 +3107,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>1439853</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>50632</v>
+        <v>1440109</v>
       </c>
       <c r="H32" t="n">
+        <v>50636</v>
+      </c>
+      <c r="I32" t="n">
         <v>1723</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/PJTr-EUmbaA/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
@@ -2954,21 +3170,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>1712733</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>59717</v>
+        <v>1717714</v>
       </c>
       <c r="H33" t="n">
-        <v>1955</v>
-      </c>
-      <c r="I33" t="inlineStr">
+        <v>59788</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1952</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/Flw53ezXBYg/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
@@ -3011,21 +3233,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>1242101</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>44998</v>
+        <v>1244948</v>
       </c>
       <c r="H34" t="n">
+        <v>45032</v>
+      </c>
+      <c r="I34" t="n">
         <v>1110</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/PcA3BIzKxiw/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
@@ -3074,21 +3302,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>3234871</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>108316</v>
+        <v>3236061</v>
       </c>
       <c r="H35" t="n">
+        <v>108339</v>
+      </c>
+      <c r="I35" t="n">
         <v>3151</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/0VkAQQKITSw/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
@@ -3155,21 +3389,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>1791298</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>48967</v>
+        <v>1794052</v>
       </c>
       <c r="H36" t="n">
-        <v>1472</v>
-      </c>
-      <c r="I36" t="inlineStr">
+        <v>49017</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1473</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/xRayul0ZnkY/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
@@ -3259,21 +3499,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>1705206</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>78126</v>
+        <v>1707011</v>
       </c>
       <c r="H37" t="n">
-        <v>2582</v>
-      </c>
-      <c r="I37" t="inlineStr">
+        <v>78165</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2583</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/dLmaSaCVFx0/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
@@ -3317,21 +3563,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>2040779</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>66378</v>
+        <v>2045259</v>
       </c>
       <c r="H38" t="n">
+        <v>66411</v>
+      </c>
+      <c r="I38" t="n">
         <v>2321</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/y-dMrhGdCms/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
@@ -3390,21 +3642,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>3184299</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>136368</v>
+        <v>3189783</v>
       </c>
       <c r="H39" t="n">
-        <v>4617</v>
-      </c>
-      <c r="I39" t="inlineStr">
+        <v>136460</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4618</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/Cw_tD7MXeEI/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Hip_hop_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -3447,21 +3705,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>2487666</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['歌ってみた', '歌い手', 'ado', 'Ado', 'Ado 歌い手', 'Ado 歌ってみた', 'Abo', 'Abo 歌い手']</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>64948</v>
+        <v>2492199</v>
       </c>
       <c r="H40" t="n">
+        <v>64987</v>
+      </c>
+      <c r="I40" t="n">
         <v>2141</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/pWZwiUaA0O8/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -3537,21 +3805,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>11536840</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>222016</v>
+        <v>11548050</v>
       </c>
       <c r="H41" t="n">
-        <v>8175</v>
-      </c>
-      <c r="I41" t="inlineStr">
+        <v>222139</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8173</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/jTVSU-Lr1ew/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -3657,21 +3931,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>3058656</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>129869</v>
+        <v>3062452</v>
       </c>
       <c r="H42" t="n">
-        <v>4659</v>
-      </c>
-      <c r="I42" t="inlineStr">
+        <v>129955</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4650</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/-KQAAeUTOQ4/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
@@ -3787,21 +4067,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>1907176</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['歌ってみた', '歌い手', 'ado', 'Ado', 'Ado 歌い手', 'Ado 歌ってみた', 'Abo', 'Abo 歌い手', 'ジョンヤキトリ']</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>72523</v>
+        <v>1909243</v>
       </c>
       <c r="H43" t="n">
-        <v>2946</v>
-      </c>
-      <c r="I43" t="inlineStr">
+        <v>72552</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2947</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/P12337hMnbI/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
@@ -3876,21 +4166,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>19922488</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>375381</v>
+        <v>19935663</v>
       </c>
       <c r="H44" t="n">
-        <v>17805</v>
-      </c>
-      <c r="I44" t="inlineStr">
+        <v>375531</v>
+      </c>
+      <c r="I44" t="n">
+        <v>17796</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/cSgZxz3le7s/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -3943,21 +4239,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>1787782</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>38999</v>
+        <v>1787957</v>
       </c>
       <c r="H45" t="n">
+        <v>39001</v>
+      </c>
+      <c r="I45" t="n">
         <v>1506</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/eI_wC_Mlel4/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -3998,21 +4300,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>2698491</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>77415</v>
+        <v>2702595</v>
       </c>
       <c r="H46" t="n">
-        <v>3973</v>
-      </c>
-      <c r="I46" t="inlineStr">
+        <v>77454</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3972</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/UcpAHDF8yZI/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>May</t>
         </is>
@@ -4052,21 +4360,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>5565982</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', 'Ado 歌ってみた', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手']</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>144717</v>
+        <v>5574831</v>
       </c>
       <c r="H47" t="n">
+        <v>144824</v>
+      </c>
+      <c r="I47" t="n">
         <v>7186</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/1OI4Bp8fGYw/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>May</t>
         </is>
@@ -4129,21 +4447,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>144851459</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>1401302</v>
+        <v>145005097</v>
       </c>
       <c r="H48" t="n">
-        <v>59767</v>
-      </c>
-      <c r="I48" t="inlineStr">
+        <v>1403129</v>
+      </c>
+      <c r="I48" t="n">
+        <v>59778</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/YnSW8ian29w/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
@@ -4182,21 +4506,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>4074030</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['Ado', 'あぼ', 'Abo', 'きらきらぼし', 'きらきら', 'ギラギラ', 'キラキラ星', 'キラキラ', 'うっせぇわ', 'レディメイド', 'あど']</t>
+        </is>
       </c>
       <c r="G49" t="n">
-        <v>178621</v>
+        <v>4075792</v>
       </c>
       <c r="H49" t="n">
+        <v>178661</v>
+      </c>
+      <c r="I49" t="n">
         <v>13225</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/zs6Mnu4gMHM/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
@@ -4251,21 +4585,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>118965958</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>965966</v>
+        <v>119082314</v>
       </c>
       <c r="H50" t="n">
-        <v>42321</v>
-      </c>
-      <c r="I50" t="inlineStr">
+        <v>966973</v>
+      </c>
+      <c r="I50" t="n">
+        <v>42334</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/sOiMD45QGLs/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
@@ -4318,21 +4658,27 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>11561824</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>337537</v>
+        <v>11569322</v>
       </c>
       <c r="H51" t="n">
+        <v>337778</v>
+      </c>
+      <c r="I51" t="n">
         <v>20325</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/m_x_aUharLc/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
@@ -4376,21 +4722,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>3984134</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', 'Ado 歌ってみた', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手', 'くわがた', 'ミク', '初音']</t>
+        </is>
       </c>
       <c r="G52" t="n">
-        <v>85862</v>
+        <v>3987879</v>
       </c>
       <c r="H52" t="n">
-        <v>3823</v>
-      </c>
-      <c r="I52" t="inlineStr">
+        <v>85915</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3815</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/QLsXgj4_gOc/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
@@ -4447,21 +4803,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>64875990</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['Ado', 'レディメイド', 'うっせぇわ', 'アド', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手', 'すりぃ', 'malo', 'ヤスタツ', 'Naoki Itai', 'ORIHARA']</t>
+        </is>
       </c>
       <c r="G53" t="n">
-        <v>647224</v>
+        <v>64949098</v>
       </c>
       <c r="H53" t="n">
-        <v>19111</v>
-      </c>
-      <c r="I53" t="inlineStr">
+        <v>648097</v>
+      </c>
+      <c r="I53" t="n">
+        <v>19112</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/jg09lNupc1s/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -4501,21 +4867,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>4691881</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', 'Ado 歌ってみた', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手']</t>
+        </is>
       </c>
       <c r="G54" t="n">
-        <v>98030</v>
+        <v>4697965</v>
       </c>
       <c r="H54" t="n">
-        <v>4013</v>
-      </c>
-      <c r="I54" t="inlineStr">
+        <v>98125</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4014</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/nMpD5q5wqPM/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -4592,21 +4968,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>36161517</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['歌ってみた', '歌い手', 'ado', 'Ado', 'Ado 歌い手', 'Ado 歌ってみた', 'Abo', 'Abo 歌い手', '柊', 'らぶか']</t>
+        </is>
       </c>
       <c r="G55" t="n">
-        <v>448312</v>
+        <v>36208086</v>
       </c>
       <c r="H55" t="n">
-        <v>12116</v>
-      </c>
-      <c r="I55" t="inlineStr">
+        <v>449052</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12115</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/YTQV48V44Sw/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -4661,21 +5047,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>10456457</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['Ado', 'WOOMA', 'syudou', 'うっせぇわ', 'Naoki Itai', '岸田勇気', 'ORIHARA', 'アド', 'Ado 歌い手', '歌い手 Ado', 'Piano']</t>
+        </is>
       </c>
       <c r="G56" t="n">
-        <v>269229</v>
+        <v>10463529</v>
       </c>
       <c r="H56" t="n">
-        <v>11257</v>
-      </c>
-      <c r="I56" t="inlineStr">
+        <v>269464</v>
+      </c>
+      <c r="I56" t="n">
+        <v>11263</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/G_jdDwi3Otw/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -4731,21 +5127,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>238757665</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['Ado', 'うっせぇわ', 'syudou', 'WOOMA', 'Naoki Itai', 'ORIHARA', 'アド', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手']</t>
+        </is>
       </c>
       <c r="G57" t="n">
-        <v>2272859</v>
+        <v>239014761</v>
       </c>
       <c r="H57" t="n">
-        <v>230413</v>
-      </c>
-      <c r="I57" t="inlineStr">
+        <v>2277080</v>
+      </c>
+      <c r="I57" t="n">
+        <v>230436</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/Qp3b-RXtz4w/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
@@ -4788,21 +5194,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>893024</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['サニーウェーブ', 'Sunny Wave', 'ココアシガレット', 'ココアシガレットP', 'ココシガP', 'GYARI', 'GYARI ボカロ', 'Ado', 'アド', 'Ado 歌ってみた', 'Ado 歌い手', '歌い手 Ado', 'Abo', 'あぼ', 'あぼ 歌い手', 'ボカロ 夏曲', '夏 ボカロ', '爽やか ボカロ']</t>
+        </is>
       </c>
       <c r="G58" t="n">
-        <v>16465</v>
+        <v>894031</v>
       </c>
       <c r="H58" t="n">
+        <v>16482</v>
+      </c>
+      <c r="I58" t="n">
         <v>438</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/1M_A3OIEceg/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
@@ -4840,21 +5256,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>948739</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['歌ってみた', '歌い手', '立椅子かんな', '立椅子', 'Limbo', 'リンボ', 'りんぼ', 'Linbo', 'ado', 'Ado', 'Ado 歌い手', 'Ado 歌ってみた', 'Abo', 'Abo 歌い手']</t>
+        </is>
       </c>
       <c r="G59" t="n">
-        <v>18591</v>
+        <v>949853</v>
       </c>
       <c r="H59" t="n">
-        <v>428</v>
-      </c>
-      <c r="I59" t="inlineStr">
+        <v>18606</v>
+      </c>
+      <c r="I59" t="n">
+        <v>427</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/13dECLUD-5Q/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
@@ -4894,21 +5320,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>2398791</v>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['歌ってみた', '歌い手', 'おじぇいまる', '半色の感傷', 'はんいろの感傷', 'はんしょくの感傷', 'はしたいろ', 'Ado', 'Ado 歌い手', 'Ado 歌ってみた', 'Abo 歌い手', 'アド 歌い手', 'エイド 歌い手', 'Abo']</t>
+        </is>
       </c>
       <c r="G60" t="n">
-        <v>38213</v>
+        <v>2401059</v>
       </c>
       <c r="H60" t="n">
+        <v>38239</v>
+      </c>
+      <c r="I60" t="n">
         <v>663</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/n_sDtV5oZR0/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
@@ -4964,21 +5400,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>7266310</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['PSYQUI', 'サイキ', 'ヒステリックナイトガール', '最低なんて言わないで', 'Ado', 'Abo', 'アド', 'Ado 歌い手', 'エイド', 'エド', 'クモ', 'つくもや', 'すず。', 'こやま', 'そーせき', 'MID', '中山明飛', 'シュウ', '縦画面', '縦画面動画', 'スマホ 縦']</t>
+        </is>
       </c>
       <c r="G61" t="n">
-        <v>92014</v>
+        <v>7273952</v>
       </c>
       <c r="H61" t="n">
+        <v>92120</v>
+      </c>
+      <c r="I61" t="n">
         <v>1312</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/UoGacSBPYPc/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
@@ -5025,21 +5471,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>12625136</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['馬鹿', 'ばか', 'バカ', '馬鹿 syudou', '馬鹿 しゅどう', 'Ado 馬鹿', '馬鹿 Ado', 'ばか Ado', 'Ado 歌い手', 'アド ばか', 'アド 馬鹿', 'エイド 歌い手', '戸部じろ', 'とべじろ', 'Abo', 'Aqo', 'Abo 歌い手', 'Wac', '中山 明飛']</t>
+        </is>
       </c>
       <c r="G62" t="n">
-        <v>138146</v>
+        <v>12634963</v>
       </c>
       <c r="H62" t="n">
+        <v>138265</v>
+      </c>
+      <c r="I62" t="n">
         <v>3298</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/aOIrxUTBRgs/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -5083,21 +5539,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>31116503</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['ボッカデラベリタ', '柊キライ', 'ボッカデラベリタ 柊キライ', 'ひいらぎきらい', 'キライ', 'Ado', 'Ado 歌い手', 'アイアイアイヘイチュー', 'なんですの', 'ボッカなんとか', 'WOOMA', 'アド', 'あぼ', 'あで', 'エイド', 'ボカべリ', 'ボッカデラベルタ', 'ぼっかなんとか', 'Bocca della Verita', 'Ado 歌いました', '보카 델라 베리타', '히이라기 키라이', 'あどボッカデラベリタ', 'アドボッカデラベリタ', 'Adoボッカデラベリタ', 'Abo 歌いました', 'ボッカデラベリタ 歌ってみた']</t>
+        </is>
       </c>
       <c r="G63" t="n">
-        <v>353323</v>
+        <v>31160529</v>
       </c>
       <c r="H63" t="n">
+        <v>354120</v>
+      </c>
+      <c r="I63" t="n">
         <v>7274</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/X9aKVLPoKJk/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -5142,21 +5608,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>4041196</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['Ado', 'あど', 'アド 歌い手', 'アド', 'Ado 歌い手', 'Abo', 'Abo 歌い手', 'Ado うたってみた', 'Ado 歌ってみた', 'あど うたってみた', 'あど 歌い手', 'ラストリゾート', 'Ayase', 'ayase', 'らすとりぞーと', 'らすと 歌ってみた', 'last resort', 'lastリゾート', 'lastresort', 'Wac', 'ワック', 'あやせ 歌ってみた', 'cover', 'Ado うた', 'あぼ', 'エイド', 'ADO', 'ado 歌ってみた', '戸部じろ', '初音ミク', 'あやせ', '高校生', '歌い手', 'LASTRESORT', '라스트 리조트', '불러 보았다', 'lastresort cover', '歌ってみた', '歌いました']</t>
+        </is>
       </c>
       <c r="G64" t="n">
-        <v>69082</v>
+        <v>4045512</v>
       </c>
       <c r="H64" t="n">
+        <v>69151</v>
+      </c>
+      <c r="I64" t="n">
         <v>1059</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/slcfa-0urok/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
@@ -5191,21 +5667,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>433964</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['Ado', 'ado', 'アド', '初音ミク', 'Hatsune miku', 'miku', 'Miku hatsune', 'akawoni', 'Ado 歌い手', 'ミク', 'ボーカロイド', 'vocaloid', 'VOCALOID', 'M.A.K.E.vortex', 'メイクボルテックス', '橙', '橙 愛莉子', 'めとろ', '鳥人間', '鳥人間.com', 'てぃら', '我々の要求', '20KYO', '東京', 'TOKYO', '2020', '令和', 'HatsuneMiku', 'Ado 邪魔', '邪魔 Ado', 'あど', 'えいど', 'エイド', 'abo', 'Abo', 'tokyo', '20kyo', '歌ってみた', 'ado 歌ってみた', 'ado歌ってみた', 'オリジナルMV', 'Ado オリジナル曲', 'だいだいありす', 'あかおに', '0831', '08312027', 'メイクボックス', 'メイクボルテック']</t>
+        </is>
       </c>
       <c r="G65" t="n">
-        <v>13731</v>
+        <v>434383</v>
       </c>
       <c r="H65" t="n">
-        <v>541</v>
-      </c>
-      <c r="I65" t="inlineStr">
+        <v>13744</v>
+      </c>
+      <c r="I65" t="n">
+        <v>542</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/9cBPLMrCG6o/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music']</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
@@ -5254,21 +5740,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>1120765</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', '歌ってみた', 'うたってみた', 'みやけ', 'YUUKI MIYAKE', 'Ado(歌い手)', 'バスケットワーム', 'Basket Worm', '高校生', '歌い手', 'Wac', 'ワック', 'MI8k', 'abo', 'Abo']</t>
+        </is>
       </c>
       <c r="G66" t="n">
-        <v>18657</v>
+        <v>1122030</v>
       </c>
       <c r="H66" t="n">
+        <v>18683</v>
+      </c>
+      <c r="I66" t="n">
         <v>500</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/A4fcb5LV1F8/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
@@ -5321,21 +5817,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>2328370</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['Ado', 'Ado(歌い手)', '歌ってみた', '歌い手', 'アド', 'あど', '猫アレルギー', 'bin', 'bin 猫アレルギー', 'Wac', 'BIN', 'bin 歌ってみた', 'bin cover', '四段階右折', '中山明飛', '廵鹵']</t>
+        </is>
       </c>
       <c r="G67" t="n">
-        <v>35911</v>
+        <v>2330630</v>
       </c>
       <c r="H67" t="n">
-        <v>753</v>
-      </c>
-      <c r="I67" t="inlineStr">
+        <v>35949</v>
+      </c>
+      <c r="I67" t="n">
+        <v>755</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/NfkXMkJV98A/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
@@ -5380,21 +5886,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>5620327</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['ado', 'Ado', 'アド', 'あど', 'Ado（歌い手）', 'Ado 歌い手', '煮ル果実', 'ハングリーニコル', 'ハングリーニコル 歌ってみた', 'Wac', '高校生', '高校生 歌ってみた', '歌ってみた', 'Abo']</t>
+        </is>
       </c>
       <c r="G68" t="n">
-        <v>83409</v>
+        <v>5625405</v>
       </c>
       <c r="H68" t="n">
-        <v>2213</v>
-      </c>
-      <c r="I68" t="inlineStr">
+        <v>83500</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2215</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/8Lf_sgxIWlg/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -5445,21 +5961,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>14119096</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['Ado', 'Ado（歌い手）', '歌い手', '歌ってみた', 'アド', 'あど', 'syudou', '邪魔', '邪魔（syudou）', 'Wac', 'Wac（mix師）', '馬鹿', '馬鹿（syudou）', '戸部じろ', 'とべじろ', 'THINGS.', '中山 明飛', 'オリジナルMV', 'じゃま', 'Abo', 'あたしが善とは思わぬが', '私が善とは思わぬが', 'らーらららーらららーらららー']</t>
+        </is>
       </c>
       <c r="G69" t="n">
-        <v>223584</v>
+        <v>14133822</v>
       </c>
       <c r="H69" t="n">
-        <v>7160</v>
-      </c>
-      <c r="I69" t="inlineStr">
+        <v>223788</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7162</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/6uR_UxqGoug/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
@@ -5509,21 +6035,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>2757425</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['歌ってみた', '歌い手', 'utaite', '脳内革命ガール', 'MARETU', 'nounaikakumeigirl', 'Ado', '高校生']</t>
+        </is>
       </c>
       <c r="G70" t="n">
-        <v>43022</v>
+        <v>2760809</v>
       </c>
       <c r="H70" t="n">
-        <v>1069</v>
-      </c>
-      <c r="I70" t="inlineStr">
+        <v>43076</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1068</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/tYMSo9gW8Ks/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
@@ -5564,21 +6100,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>10723596</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', '歌ってみた', '乙女解剖', 'DECO*27', '初音ミク', 'こんばんは今平気かな', '乙女解剖 TikTok', '乙女解剖 抹茶', '乙女解剖 歌ってみた']</t>
+        </is>
       </c>
       <c r="G71" t="n">
-        <v>127070</v>
+        <v>10736958</v>
       </c>
       <c r="H71" t="n">
+        <v>127243</v>
+      </c>
+      <c r="I71" t="n">
         <v>2379</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/N5cSFdGANVc/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
@@ -5619,21 +6165,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>980868</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['アド', 'Ado', '歌ってみた', 'アディショナルメモリー', 'じん', 'カゲプロ']</t>
+        </is>
       </c>
       <c r="G72" t="n">
-        <v>17663</v>
+        <v>982351</v>
       </c>
       <c r="H72" t="n">
-        <v>319</v>
-      </c>
-      <c r="I72" t="inlineStr">
+        <v>17704</v>
+      </c>
+      <c r="I72" t="n">
+        <v>320</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/h1q7BNK5U9A/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -5674,21 +6230,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>2622581</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['Ado', 'アド', '歌ってみた', 'エゴロック', 'すりぃ', '鏡音レン']</t>
+        </is>
       </c>
       <c r="G73" t="n">
-        <v>75368</v>
+        <v>2625836</v>
       </c>
       <c r="H73" t="n">
+        <v>75438</v>
+      </c>
+      <c r="I73" t="n">
         <v>886</v>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/V37DacsS_Wg/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
@@ -5729,21 +6295,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>1279436</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['Ado', 'メルティランドナイトメア', '歌ってみた', 'Wac']</t>
+        </is>
       </c>
       <c r="G74" t="n">
-        <v>22164</v>
+        <v>1281242</v>
       </c>
       <c r="H74" t="n">
-        <v>384</v>
-      </c>
-      <c r="I74" t="inlineStr">
+        <v>22204</v>
+      </c>
+      <c r="I74" t="n">
+        <v>385</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/OZYqBsmtwuA/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
@@ -5784,21 +6360,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>1114082</v>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['Ado', 'Wac', '歌ってみた', 'アクシデントコーディネイター']</t>
+        </is>
       </c>
       <c r="G75" t="n">
-        <v>13614</v>
+        <v>1115245</v>
       </c>
       <c r="H75" t="n">
+        <v>13631</v>
+      </c>
+      <c r="I75" t="n">
         <v>213</v>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/R8SsFdv35Dg/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -5837,21 +6423,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>2163545</v>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['Ado', 'Wac', '歌ってみた', 'うみなおし']</t>
+        </is>
       </c>
       <c r="G76" t="n">
-        <v>36830</v>
+        <v>2166391</v>
       </c>
       <c r="H76" t="n">
-        <v>943</v>
-      </c>
-      <c r="I76" t="inlineStr">
+        <v>36884</v>
+      </c>
+      <c r="I76" t="n">
+        <v>945</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/cfVYSHvAhaQ/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -5890,21 +6486,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>7122042</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['Ado', '歌ってみた', 'Wac', '恋愛裁判']</t>
+        </is>
       </c>
       <c r="G77" t="n">
-        <v>92198</v>
+        <v>7132191</v>
       </c>
       <c r="H77" t="n">
+        <v>92354</v>
+      </c>
+      <c r="I77" t="n">
         <v>1843</v>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/iHIrEqU5cwM/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -5943,21 +6549,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>461723</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['Ado', '脳内革命ガール', 'ワンコーラス', 'Wac']</t>
+        </is>
       </c>
       <c r="G78" t="n">
-        <v>13002</v>
+        <v>462749</v>
       </c>
       <c r="H78" t="n">
-        <v>550</v>
-      </c>
-      <c r="I78" t="inlineStr">
+        <v>13034</v>
+      </c>
+      <c r="I78" t="n">
+        <v>555</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/qL3chh5M5d0/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Electronic_music', 'https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -5996,21 +6612,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>4416140</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['Ado', 'Wack', '歌ってみた', 'キライ・キライ・ジガヒダイ！', 'Wac']</t>
+        </is>
       </c>
       <c r="G79" t="n">
-        <v>74480</v>
+        <v>4422539</v>
       </c>
       <c r="H79" t="n">
+        <v>74583</v>
+      </c>
+      <c r="I79" t="n">
         <v>1612</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/gmJiYoRhO5g/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Rock_music']</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -6049,21 +6675,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>1257211</v>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['Ado', 'Wac', '歌ってみた', '妄想感傷代償連盟']</t>
+        </is>
       </c>
       <c r="G80" t="n">
-        <v>37643</v>
+        <v>1259452</v>
       </c>
       <c r="H80" t="n">
+        <v>37719</v>
+      </c>
+      <c r="I80" t="n">
         <v>575</v>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/Io9gOyAlq9g/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia', 'https://en.wikipedia.org/wiki/Pop_music']</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
@@ -6101,21 +6737,31 @@
           <t>ja</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>1050952</v>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['Ado', 'Wac', '歌ってみた', 'メーベル']</t>
+        </is>
       </c>
       <c r="G81" t="n">
-        <v>28693</v>
+        <v>1053553</v>
       </c>
       <c r="H81" t="n">
-        <v>979</v>
-      </c>
-      <c r="I81" t="inlineStr">
+        <v>28789</v>
+      </c>
+      <c r="I81" t="n">
+        <v>981</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>https://i.ytimg.com/vi/hOxAQO57zyY/hqdefault.jpg</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>['https://en.wikipedia.org/wiki/Independent_music', 'https://en.wikipedia.org/wiki/Music', 'https://en.wikipedia.org/wiki/Music_of_Asia']</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
